--- a/sheets/christmas.xlsx
+++ b/sheets/christmas.xlsx
@@ -165,10 +165,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -194,19 +194,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>2000000</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/sheets/christmas.xlsx
+++ b/sheets/christmas.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="christmas-trees" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="accessories" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -58,6 +59,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.co.uk/Duchess-Spruce-Green-Artificial-Christmas/dp/B01M7X5TT8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christmas Snow Spray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create your own Christmas atmosphere with this snow spray.  It's rich texture makes it ideal for decorating Christmas trees and handicrafts.  Water-based, 150 ml aerosol made in Europe.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn1.eminza.com/images/product/2400/070/1/070182/spray-neve-per-albero-bianco-600-ml_70182_1666715701.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thechristmasshop.co.uk/epages/BT4873.sf/en_GB/?ObjectPath=/Shops/BT4873/Products/PO22046</t>
   </si>
 </sst>
 </file>
@@ -164,8 +177,75 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>5183</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -194,20 +274,23 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5385</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
